--- a/Symphony/2021/OCTOBER/All Details/28.10.2021/MC Bank Statement October-2021.xlsx
+++ b/Symphony/2021/OCTOBER/All Details/28.10.2021/MC Bank Statement October-2021.xlsx
@@ -3342,6 +3342,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3373,12 +3379,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="39" fillId="35" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6529,67 +6529,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="330" t="s">
+      <c r="A1" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="330"/>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="330"/>
-      <c r="F1" s="330"/>
-      <c r="G1" s="330"/>
-      <c r="H1" s="330"/>
-      <c r="I1" s="330"/>
-      <c r="J1" s="330"/>
-      <c r="K1" s="330"/>
-      <c r="L1" s="330"/>
-      <c r="M1" s="330"/>
-      <c r="N1" s="330"/>
-      <c r="O1" s="330"/>
-      <c r="P1" s="330"/>
-      <c r="Q1" s="330"/>
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
+      <c r="N1" s="332"/>
+      <c r="O1" s="332"/>
+      <c r="P1" s="332"/>
+      <c r="Q1" s="332"/>
     </row>
     <row r="2" spans="1:24" s="81" customFormat="1" ht="18">
-      <c r="A2" s="331" t="s">
+      <c r="A2" s="333" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="331"/>
-      <c r="C2" s="331"/>
-      <c r="D2" s="331"/>
-      <c r="E2" s="331"/>
-      <c r="F2" s="331"/>
-      <c r="G2" s="331"/>
-      <c r="H2" s="331"/>
-      <c r="I2" s="331"/>
-      <c r="J2" s="331"/>
-      <c r="K2" s="331"/>
-      <c r="L2" s="331"/>
-      <c r="M2" s="331"/>
-      <c r="N2" s="331"/>
-      <c r="O2" s="331"/>
-      <c r="P2" s="331"/>
-      <c r="Q2" s="331"/>
+      <c r="B2" s="333"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
+      <c r="G2" s="333"/>
+      <c r="H2" s="333"/>
+      <c r="I2" s="333"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333"/>
+      <c r="L2" s="333"/>
+      <c r="M2" s="333"/>
+      <c r="N2" s="333"/>
+      <c r="O2" s="333"/>
+      <c r="P2" s="333"/>
+      <c r="Q2" s="333"/>
     </row>
     <row r="3" spans="1:24" s="82" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="332" t="s">
+      <c r="A3" s="334" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="333"/>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="333"/>
-      <c r="I3" s="333"/>
-      <c r="J3" s="333"/>
-      <c r="K3" s="333"/>
-      <c r="L3" s="333"/>
-      <c r="M3" s="333"/>
-      <c r="N3" s="333"/>
-      <c r="O3" s="333"/>
-      <c r="P3" s="333"/>
-      <c r="Q3" s="334"/>
+      <c r="B3" s="335"/>
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="335"/>
+      <c r="O3" s="335"/>
+      <c r="P3" s="335"/>
+      <c r="Q3" s="336"/>
       <c r="S3" s="65"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6598,49 +6598,49 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="83" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="335" t="s">
+      <c r="A4" s="337" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="337" t="s">
+      <c r="B4" s="339" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="339" t="s">
+      <c r="C4" s="328" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="339" t="s">
+      <c r="D4" s="328" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="328" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="339" t="s">
+      <c r="F4" s="328" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="339" t="s">
+      <c r="G4" s="328" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="339" t="s">
+      <c r="H4" s="328" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="339" t="s">
+      <c r="I4" s="328" t="s">
         <v>172</v>
       </c>
-      <c r="J4" s="339" t="s">
+      <c r="J4" s="328" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="339" t="s">
+      <c r="K4" s="328" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="339" t="s">
+      <c r="L4" s="328" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="339" t="s">
+      <c r="M4" s="328" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="339" t="s">
+      <c r="N4" s="328" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="328" t="s">
+      <c r="O4" s="330" t="s">
         <v>55</v>
       </c>
       <c r="P4" s="341" t="s">
@@ -6656,21 +6656,21 @@
       <c r="W4" s="85"/>
     </row>
     <row r="5" spans="1:24" s="83" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="336"/>
-      <c r="B5" s="338"/>
-      <c r="C5" s="340"/>
-      <c r="D5" s="340"/>
-      <c r="E5" s="340"/>
-      <c r="F5" s="340"/>
-      <c r="G5" s="340"/>
-      <c r="H5" s="340"/>
-      <c r="I5" s="340"/>
-      <c r="J5" s="340"/>
-      <c r="K5" s="340"/>
-      <c r="L5" s="340"/>
-      <c r="M5" s="340"/>
-      <c r="N5" s="340"/>
-      <c r="O5" s="329"/>
+      <c r="A5" s="338"/>
+      <c r="B5" s="340"/>
+      <c r="C5" s="329"/>
+      <c r="D5" s="329"/>
+      <c r="E5" s="329"/>
+      <c r="F5" s="329"/>
+      <c r="G5" s="329"/>
+      <c r="H5" s="329"/>
+      <c r="I5" s="329"/>
+      <c r="J5" s="329"/>
+      <c r="K5" s="329"/>
+      <c r="L5" s="329"/>
+      <c r="M5" s="329"/>
+      <c r="N5" s="329"/>
+      <c r="O5" s="331"/>
       <c r="P5" s="342"/>
       <c r="Q5" s="146" t="s">
         <v>56</v>
@@ -9906,6 +9906,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9922,9 +9925,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9938,7 +9938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A110" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
@@ -12965,14 +12965,14 @@
         <v>686910</v>
       </c>
       <c r="C28" s="67">
-        <v>384680</v>
+        <v>459680</v>
       </c>
       <c r="D28" s="64">
         <v>1580</v>
       </c>
       <c r="E28" s="64">
         <f t="shared" si="0"/>
-        <v>386260</v>
+        <v>461260</v>
       </c>
       <c r="F28" s="259"/>
       <c r="G28" s="278">
@@ -13487,7 +13487,7 @@
       </c>
       <c r="C33" s="312">
         <f>SUM(C5:C32)</f>
-        <v>13143874</v>
+        <v>13218874</v>
       </c>
       <c r="D33" s="311">
         <f>SUM(D5:D32)</f>
@@ -13495,11 +13495,11 @@
       </c>
       <c r="E33" s="311">
         <f>SUM(E5:E32)</f>
-        <v>13200609</v>
+        <v>13275609</v>
       </c>
       <c r="F33" s="311">
         <f>B33-E33</f>
-        <v>207571</v>
+        <v>132571</v>
       </c>
       <c r="G33" s="313"/>
       <c r="H33" s="158"/>
@@ -14911,7 +14911,7 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="233">
-        <v>702970</v>
+        <v>627970</v>
       </c>
       <c r="E46" s="205" t="s">
         <v>243</v>
@@ -23130,7 +23130,7 @@
       <c r="C119" s="356"/>
       <c r="D119" s="237">
         <f>SUM(D37:D118)</f>
-        <v>2203881</v>
+        <v>2128881</v>
       </c>
       <c r="E119" s="229"/>
       <c r="F119" s="157"/>
@@ -23337,7 +23337,7 @@
       <c r="C121" s="344"/>
       <c r="D121" s="237">
         <f>D119+M121</f>
-        <v>2203881</v>
+        <v>2128881</v>
       </c>
       <c r="E121" s="229"/>
       <c r="F121" s="157"/>
@@ -34570,7 +34570,7 @@
   <dimension ref="A1:AC220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34795,7 +34795,7 @@
         <v>80</v>
       </c>
       <c r="E8" s="283">
-        <v>450932.6207142882</v>
+        <v>525932.6207142882</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="319"/>
@@ -34900,7 +34900,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="282">
-        <v>2203881</v>
+        <v>2128881</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="266"/>
@@ -35421,7 +35421,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="297">
-        <v>702880</v>
+        <v>627970</v>
       </c>
       <c r="C25" s="140"/>
       <c r="D25" s="293" t="s">
